--- a/data/financial_statements/sofp/DLR.xlsx
+++ b/data/financial_statements/sofp/DLR.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -116,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -171,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -481,144 +592,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>177000000</v>
+        <v>176969000</v>
       </c>
       <c r="C2">
-        <v>99000000</v>
+        <v>99226000</v>
       </c>
       <c r="D2">
-        <v>158000000</v>
+        <v>157964000</v>
       </c>
       <c r="E2">
-        <v>143000000</v>
+        <v>142698000</v>
       </c>
       <c r="F2">
-        <v>116000000</v>
+        <v>116002000</v>
       </c>
       <c r="G2">
         <v>120482000</v>
@@ -724,8 +835,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>861117000</v>
@@ -846,8 +957,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1038086000</v>
@@ -968,23 +1079,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1253000000</v>
+        <v>22306540000</v>
       </c>
       <c r="C5">
-        <v>1311000000</v>
+        <v>20800390000</v>
       </c>
       <c r="D5">
-        <v>1362000000</v>
+        <v>20932960000</v>
       </c>
       <c r="E5">
-        <v>1405000000</v>
+        <v>20762240000</v>
       </c>
       <c r="F5">
-        <v>1443000000</v>
+        <v>20581990000</v>
       </c>
       <c r="G5">
         <v>20782350000</v>
@@ -1090,23 +1201,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>11523000000</v>
+        <v>8728105000</v>
       </c>
       <c r="C6">
-        <v>9832000000</v>
+        <v>7545107000</v>
       </c>
       <c r="D6">
-        <v>10213000000</v>
+        <v>7802440000</v>
       </c>
       <c r="E6">
-        <v>10445000000</v>
+        <v>7937440000</v>
       </c>
       <c r="F6">
-        <v>10698000000</v>
+        <v>8062914000</v>
       </c>
       <c r="G6">
         <v>8185931000</v>
@@ -1179,23 +1290,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>356000000</v>
+        <v>5332898000</v>
       </c>
       <c r="C7">
-        <v>375000000</v>
+        <v>4849141000</v>
       </c>
       <c r="D7">
-        <v>410000000</v>
+        <v>5104988000</v>
       </c>
       <c r="E7">
-        <v>351000000</v>
+        <v>4902634000</v>
       </c>
       <c r="F7">
-        <v>306000000</v>
+        <v>4480810000</v>
       </c>
       <c r="G7">
         <v>4440361000</v>
@@ -1301,8 +1412,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>36923740000</v>
@@ -1423,23 +1534,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>39215000000</v>
+        <v>39215220000</v>
       </c>
       <c r="C9">
-        <v>35956000000</v>
+        <v>35956060000</v>
       </c>
       <c r="D9">
-        <v>36681000000</v>
+        <v>36680540000</v>
       </c>
       <c r="E9">
-        <v>36370000000</v>
+        <v>36369560000</v>
       </c>
       <c r="F9">
-        <v>35848000000</v>
+        <v>35847640000</v>
       </c>
       <c r="G9">
         <v>36151220000</v>
@@ -1545,16 +1656,16 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="P10">
         <v>8523462000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1621406000</v>
@@ -1675,8 +1786,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C12">
         <v>1619222000</v>
@@ -1713,8 +1824,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>294000000</v>
@@ -1742,8 +1853,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1621406000</v>
@@ -1864,23 +1975,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>16828000000</v>
+        <v>15758510000</v>
       </c>
       <c r="C15">
-        <v>15084000000</v>
+        <v>14294310000</v>
       </c>
       <c r="D15">
-        <v>15196000000</v>
+        <v>14388220000</v>
       </c>
       <c r="E15">
-        <v>14278000000</v>
+        <v>13448210000</v>
       </c>
       <c r="F15">
-        <v>15631000000</v>
+        <v>14087540000</v>
       </c>
       <c r="G15">
         <v>13927820000</v>
@@ -1986,23 +2097,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>1145000000</v>
+        <v>1145097000</v>
       </c>
       <c r="C16">
-        <v>612000000</v>
+        <v>611582000</v>
       </c>
       <c r="D16">
-        <v>649000000</v>
+        <v>649112000</v>
       </c>
       <c r="E16">
-        <v>8000000</v>
+        <v>666451000</v>
       </c>
       <c r="F16">
-        <v>726000000</v>
+        <v>725955000</v>
       </c>
       <c r="G16">
         <v>742127000</v>
@@ -2027,8 +2138,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1429920000</v>
@@ -2095,23 +2206,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1963000000</v>
+        <v>341552000</v>
       </c>
       <c r="C18">
-        <v>1960000000</v>
+        <v>341140000</v>
       </c>
       <c r="D18">
-        <v>1919000000</v>
+        <v>346908000</v>
       </c>
       <c r="E18">
-        <v>2219000000</v>
+        <v>336578000</v>
       </c>
       <c r="F18">
-        <v>1684000000</v>
+        <v>341778000</v>
       </c>
       <c r="G18">
         <v>362606000</v>
@@ -2217,8 +2328,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>18675080000</v>
@@ -2339,23 +2450,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>20230000000</v>
+        <v>21660200000</v>
       </c>
       <c r="C20">
-        <v>18285000000</v>
+        <v>18325840000</v>
       </c>
       <c r="D20">
-        <v>18429000000</v>
+        <v>18471840000</v>
       </c>
       <c r="E20">
-        <v>17846000000</v>
+        <v>17892770000</v>
       </c>
       <c r="F20">
-        <v>18040000000</v>
+        <v>18081290000</v>
       </c>
       <c r="G20">
         <v>17986970000</v>
@@ -2461,8 +2572,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>21528380000</v>
@@ -2583,8 +2694,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>731690000</v>
@@ -2705,23 +2816,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>3000000</v>
+        <v>2851000</v>
       </c>
       <c r="C23">
-        <v>3000000</v>
+        <v>2824000</v>
       </c>
       <c r="D23">
-        <v>3000000</v>
+        <v>2824000</v>
       </c>
       <c r="E23">
-        <v>3000000</v>
+        <v>2824000</v>
       </c>
       <c r="F23">
-        <v>3000000</v>
+        <v>2818000</v>
       </c>
       <c r="G23">
         <v>2806000</v>
@@ -2827,23 +2938,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>-4336000000</v>
+        <v>-4336201000</v>
       </c>
       <c r="C24">
-        <v>-4212000000</v>
+        <v>-4211685000</v>
       </c>
       <c r="D24">
-        <v>-3917000000</v>
+        <v>-3916854000</v>
       </c>
       <c r="E24">
-        <v>-3632000000</v>
+        <v>-3631929000</v>
       </c>
       <c r="F24">
-        <v>-4359000000</v>
+        <v>-4359033000</v>
       </c>
       <c r="G24">
         <v>-4153407000</v>
@@ -2949,23 +3060,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>16332000000</v>
+        <v>16823330000</v>
       </c>
       <c r="C25">
-        <v>16407000000</v>
+        <v>16898530000</v>
       </c>
       <c r="D25">
-        <v>16967000000</v>
+        <v>17477020000</v>
       </c>
       <c r="E25">
-        <v>17273000000</v>
+        <v>17745100000</v>
       </c>
       <c r="F25">
-        <v>16542000000</v>
+        <v>17034670000</v>
       </c>
       <c r="G25">
         <v>17432560000</v>
@@ -3071,23 +3182,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>17064000000</v>
+        <v>17555020000</v>
       </c>
       <c r="C26">
-        <v>17139000000</v>
+        <v>17630220000</v>
       </c>
       <c r="D26">
-        <v>17698000000</v>
+        <v>18208710000</v>
       </c>
       <c r="E26">
-        <v>18005000000</v>
+        <v>18476790000</v>
       </c>
       <c r="F26">
-        <v>17274000000</v>
+        <v>17766360000</v>
       </c>
       <c r="G26">
         <v>18164250000</v>
@@ -3193,8 +3304,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>39215220000</v>
@@ -3315,8 +3426,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>287508000</v>
@@ -3437,8 +3548,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>30200000</v>
@@ -3559,8 +3670,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>8826918000</v>
@@ -3681,23 +3792,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>16945000000</v>
+        <v>15875541000</v>
       </c>
       <c r="C31">
-        <v>15614000000</v>
+        <v>14824084000</v>
       </c>
       <c r="D31">
-        <v>15703000000</v>
+        <v>14895256000</v>
       </c>
       <c r="E31">
-        <v>14818000000</v>
+        <v>13988512000</v>
       </c>
       <c r="F31">
-        <v>15515000000</v>
+        <v>13971538000</v>
       </c>
       <c r="G31">
         <v>13807338000</v>
@@ -3803,23 +3914,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>17122000000</v>
+        <v>16052510000</v>
       </c>
       <c r="C32">
-        <v>15713000000</v>
+        <v>14923310000</v>
       </c>
       <c r="D32">
-        <v>15861000000</v>
+        <v>15053220000</v>
       </c>
       <c r="E32">
-        <v>14961000000</v>
+        <v>14131210000</v>
       </c>
       <c r="F32">
-        <v>15631000000</v>
+        <v>14087540000</v>
       </c>
       <c r="G32">
         <v>13927820000</v>
